--- a/Selenium/Bugs/data/style/소울풀한.xlsx
+++ b/Selenium/Bugs/data/style/소울풀한.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="835">
   <si>
     <t>Title</t>
   </si>
@@ -52,7 +52,7 @@
     <t>I Saw Mommy Kissing Santa Claus</t>
   </si>
   <si>
-    <t>Santa's Got a Brand New Bag</t>
+    <t xml:space="preserve">Santa's Got a Brand New Bag </t>
   </si>
   <si>
     <t>Rockin' Around The Christmas Tree</t>
@@ -115,13 +115,13 @@
     <t>Santa Claus Go Straight To The Ghetto</t>
   </si>
   <si>
-    <t>Gee Whiz, It's Christmas</t>
+    <t xml:space="preserve">Gee Whiz, It's Christmas </t>
   </si>
   <si>
     <t>One Little Christmas Tree</t>
   </si>
   <si>
-    <t>Christmas Love</t>
+    <t xml:space="preserve">Christmas Love </t>
   </si>
   <si>
     <t>Jingle Bell Rock</t>
@@ -142,7 +142,7 @@
     <t>Stand By Me (Single/LP Version)</t>
   </si>
   <si>
-    <t>Bring It on Home to Me</t>
+    <t xml:space="preserve">Bring It on Home to Me </t>
   </si>
   <si>
     <t>When A Man Loves A Woman</t>
@@ -175,10 +175,10 @@
     <t>Ain't Too Proud To Beg</t>
   </si>
   <si>
-    <t>Judy's Turn to Cry</t>
-  </si>
-  <si>
-    <t>Save The Last Dance For Me</t>
+    <t xml:space="preserve">Judy's Turn to Cry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save The Last Dance For Me </t>
   </si>
   <si>
     <t>Daydream</t>
@@ -310,10 +310,10 @@
     <t>Won't Give Up</t>
   </si>
   <si>
-    <t>Feels Good (Yeah!) (Kelly G. Little Louie Party Mix)</t>
-  </si>
-  <si>
-    <t>At Last (Remastered)</t>
+    <t xml:space="preserve">Feels Good (Yeah!) (Kelly G. Little Louie Party Mix) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">At Last (Remastered) </t>
   </si>
   <si>
     <t>You're My Latest, My Greatest Inspiration</t>
@@ -334,7 +334,7 @@
     <t>Mighty Love</t>
   </si>
   <si>
-    <t>What Love Has Joined Together</t>
+    <t xml:space="preserve">What Love Has Joined Together </t>
   </si>
   <si>
     <t>Didn't I (Blow Your Mind This Time)</t>
@@ -352,13 +352,13 @@
     <t>This Girl's In Love With You (LP Version)</t>
   </si>
   <si>
-    <t>When Something Is Wrong With My Baby</t>
+    <t xml:space="preserve">When Something Is Wrong With My Baby </t>
   </si>
   <si>
     <t>Every Beat Of My Heart</t>
   </si>
   <si>
-    <t>Hold What You've Got</t>
+    <t xml:space="preserve">Hold What You've Got </t>
   </si>
   <si>
     <t>You've Really Got A Hold On Me</t>
@@ -391,7 +391,7 @@
     <t>Runaway (Original Mix)</t>
   </si>
   <si>
-    <t>All I Need (Reelsoul &amp; DJ Spen Vocal Mix)</t>
+    <t xml:space="preserve">All I Need (Reelsoul &amp; DJ Spen Vocal Mix) </t>
   </si>
   <si>
     <t>Glorious (DJ Spen &amp; Reelsoul Remix)</t>
@@ -403,7 +403,7 @@
     <t>Days Go By</t>
   </si>
   <si>
-    <t>Losing Blues</t>
+    <t xml:space="preserve">Losing Blues </t>
   </si>
   <si>
     <t>You Got Something Special (Dr Packer Edit)</t>
@@ -442,10 +442,10 @@
     <t>My Vision [feat. Jakatta]</t>
   </si>
   <si>
-    <t>Blue Funk (Javonntte &amp; Jan Kincl Remix)</t>
-  </si>
-  <si>
-    <t>Deep Love (Spotify Edit)</t>
+    <t xml:space="preserve">Blue Funk (Javonntte &amp; Jan Kincl Remix) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep Love (Spotify Edit) </t>
   </si>
   <si>
     <t>Kind Of Life, Kind Of Love (PBR Streetgang Re-Version) [2020 - Remaster]</t>
@@ -562,7 +562,7 @@
     <t>La Vie En Rose (feat. Menno Beck)</t>
   </si>
   <si>
-    <t>No Longer Lovers</t>
+    <t xml:space="preserve">No Longer Lovers </t>
   </si>
   <si>
     <t>He Don't Love Me</t>
@@ -640,7 +640,7 @@
     <t>MAD</t>
   </si>
   <si>
-    <t>You Were Mine</t>
+    <t xml:space="preserve">You Were Mine </t>
   </si>
   <si>
     <t>Ebhayi</t>
@@ -691,7 +691,7 @@
     <t>Inde Lendlela</t>
   </si>
   <si>
-    <t>[19금]</t>
+    <t>Life</t>
   </si>
   <si>
     <t>eThekwini</t>
@@ -721,13 +721,13 @@
     <t>Upside Down</t>
   </si>
   <si>
-    <t>Heaven Must Have Sent You</t>
+    <t xml:space="preserve">Heaven Must Have Sent You </t>
   </si>
   <si>
     <t>Reach Out, I'll Be There (Original ver.)</t>
   </si>
   <si>
-    <t>I Heard It Through the Grapevine</t>
+    <t xml:space="preserve">I Heard It Through the Grapevine </t>
   </si>
   <si>
     <t>I'm In Love</t>
@@ -736,7 +736,7 @@
     <t>Let's Say Goodbye Tomorrow</t>
   </si>
   <si>
-    <t>Love Me All The Way</t>
+    <t xml:space="preserve">Love Me All The Way </t>
   </si>
   <si>
     <t>I'm In Love (Album Version)</t>
@@ -760,13 +760,13 @@
     <t>Smiling Faces Sometimes</t>
   </si>
   <si>
-    <t>One Door Closes Another Opens</t>
+    <t xml:space="preserve">One Door Closes Another Opens </t>
   </si>
   <si>
     <t>Tell Me Something Good</t>
   </si>
   <si>
-    <t>One Scotch, One Bourbon, One Beer</t>
+    <t xml:space="preserve">One Scotch, One Bourbon, One Beer </t>
   </si>
   <si>
     <t>Let's Get Serious</t>
@@ -865,7 +865,10 @@
     <t>Naked</t>
   </si>
   <si>
-    <t>Ooooo</t>
+    <t xml:space="preserve">Ooooo </t>
+  </si>
+  <si>
+    <t>Heatstroke (feat. Young Thug, Pharrell, Ariana Grande)</t>
   </si>
   <si>
     <t>River</t>
@@ -2911,10 +2914,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2925,10 +2928,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2939,10 +2942,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2953,10 +2956,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2967,10 +2970,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2981,10 +2984,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2995,10 +2998,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3009,10 +3012,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3023,10 +3026,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3037,10 +3040,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3051,10 +3054,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3065,10 +3068,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3079,10 +3082,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3093,10 +3096,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3107,10 +3110,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3121,10 +3124,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3135,10 +3138,10 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3149,10 +3152,10 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3163,10 +3166,10 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3177,10 +3180,10 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3191,10 +3194,10 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3205,10 +3208,10 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3219,10 +3222,10 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3233,10 +3236,10 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3247,10 +3250,10 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3261,10 +3264,10 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3275,10 +3278,10 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3289,10 +3292,10 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3303,10 +3306,10 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3317,10 +3320,10 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3331,10 +3334,10 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3345,10 +3348,10 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3359,10 +3362,10 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3373,10 +3376,10 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3387,10 +3390,10 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3401,10 +3404,10 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3415,10 +3418,10 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3429,10 +3432,10 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3443,10 +3446,10 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3457,10 +3460,10 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3471,10 +3474,10 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3485,10 +3488,10 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3499,10 +3502,10 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3513,10 +3516,10 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3527,10 +3530,10 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3541,10 +3544,10 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3555,10 +3558,10 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3569,10 +3572,10 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3583,10 +3586,10 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3597,10 +3600,10 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3611,10 +3614,10 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -3625,10 +3628,10 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3639,10 +3642,10 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3653,10 +3656,10 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -3667,10 +3670,10 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -3681,10 +3684,10 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3695,10 +3698,10 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -3709,10 +3712,10 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -3723,10 +3726,10 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3737,10 +3740,10 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -3751,10 +3754,10 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -3765,10 +3768,10 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3779,10 +3782,10 @@
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -3793,10 +3796,10 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -3807,10 +3810,10 @@
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3821,10 +3824,10 @@
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3835,10 +3838,10 @@
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -3849,10 +3852,10 @@
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -3863,10 +3866,10 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3877,10 +3880,10 @@
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -3891,10 +3894,10 @@
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -3905,10 +3908,10 @@
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -3919,10 +3922,10 @@
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -3933,10 +3936,10 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3947,10 +3950,10 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -3961,10 +3964,10 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -3975,10 +3978,10 @@
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3989,10 +3992,10 @@
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4003,10 +4006,10 @@
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -4017,10 +4020,10 @@
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -4031,10 +4034,10 @@
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -4045,10 +4048,10 @@
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -4059,10 +4062,10 @@
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4073,10 +4076,10 @@
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -4087,10 +4090,10 @@
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -4101,10 +4104,10 @@
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -4115,10 +4118,10 @@
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4129,10 +4132,10 @@
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4143,10 +4146,10 @@
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4157,10 +4160,10 @@
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -4171,10 +4174,10 @@
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4185,10 +4188,10 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4199,10 +4202,10 @@
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4213,10 +4216,10 @@
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4227,10 +4230,10 @@
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4241,10 +4244,10 @@
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4255,10 +4258,10 @@
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4269,10 +4272,10 @@
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4283,10 +4286,10 @@
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4297,10 +4300,10 @@
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4311,10 +4314,10 @@
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -4325,10 +4328,10 @@
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4339,10 +4342,10 @@
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4353,10 +4356,10 @@
         <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4367,10 +4370,10 @@
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4381,10 +4384,10 @@
         <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4395,10 +4398,10 @@
         <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4409,10 +4412,10 @@
         <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4423,10 +4426,10 @@
         <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4437,10 +4440,10 @@
         <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4451,10 +4454,10 @@
         <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4465,10 +4468,10 @@
         <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4479,10 +4482,10 @@
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4493,10 +4496,10 @@
         <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4507,10 +4510,10 @@
         <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4521,10 +4524,10 @@
         <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4535,10 +4538,10 @@
         <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4549,10 +4552,10 @@
         <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4563,10 +4566,10 @@
         <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4577,10 +4580,10 @@
         <v>122</v>
       </c>
       <c r="C121" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4591,10 +4594,10 @@
         <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4605,10 +4608,10 @@
         <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -4619,10 +4622,10 @@
         <v>125</v>
       </c>
       <c r="C124" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4633,10 +4636,10 @@
         <v>126</v>
       </c>
       <c r="C125" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4647,10 +4650,10 @@
         <v>127</v>
       </c>
       <c r="C126" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -4661,10 +4664,10 @@
         <v>128</v>
       </c>
       <c r="C127" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -4675,10 +4678,10 @@
         <v>129</v>
       </c>
       <c r="C128" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4689,10 +4692,10 @@
         <v>130</v>
       </c>
       <c r="C129" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -4703,10 +4706,10 @@
         <v>131</v>
       </c>
       <c r="C130" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -4717,10 +4720,10 @@
         <v>132</v>
       </c>
       <c r="C131" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4731,10 +4734,10 @@
         <v>133</v>
       </c>
       <c r="C132" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -4745,10 +4748,10 @@
         <v>134</v>
       </c>
       <c r="C133" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4759,10 +4762,10 @@
         <v>135</v>
       </c>
       <c r="C134" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4773,10 +4776,10 @@
         <v>136</v>
       </c>
       <c r="C135" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -4787,10 +4790,10 @@
         <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4801,10 +4804,10 @@
         <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -4815,10 +4818,10 @@
         <v>95</v>
       </c>
       <c r="C138" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -4829,10 +4832,10 @@
         <v>139</v>
       </c>
       <c r="C139" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -4843,10 +4846,10 @@
         <v>140</v>
       </c>
       <c r="C140" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4857,10 +4860,10 @@
         <v>141</v>
       </c>
       <c r="C141" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -4871,10 +4874,10 @@
         <v>142</v>
       </c>
       <c r="C142" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -4885,10 +4888,10 @@
         <v>143</v>
       </c>
       <c r="C143" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -4899,10 +4902,10 @@
         <v>144</v>
       </c>
       <c r="C144" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -4913,10 +4916,10 @@
         <v>145</v>
       </c>
       <c r="C145" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -4927,10 +4930,10 @@
         <v>146</v>
       </c>
       <c r="C146" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4941,10 +4944,10 @@
         <v>147</v>
       </c>
       <c r="C147" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4955,10 +4958,10 @@
         <v>148</v>
       </c>
       <c r="C148" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4969,10 +4972,10 @@
         <v>149</v>
       </c>
       <c r="C149" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4983,10 +4986,10 @@
         <v>150</v>
       </c>
       <c r="C150" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4997,10 +5000,10 @@
         <v>151</v>
       </c>
       <c r="C151" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -5011,10 +5014,10 @@
         <v>152</v>
       </c>
       <c r="C152" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -5025,10 +5028,10 @@
         <v>153</v>
       </c>
       <c r="C153" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -5039,10 +5042,10 @@
         <v>154</v>
       </c>
       <c r="C154" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -5053,10 +5056,10 @@
         <v>155</v>
       </c>
       <c r="C155" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5067,10 +5070,10 @@
         <v>156</v>
       </c>
       <c r="C156" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -5081,10 +5084,10 @@
         <v>157</v>
       </c>
       <c r="C157" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -5095,10 +5098,10 @@
         <v>158</v>
       </c>
       <c r="C158" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -5109,10 +5112,10 @@
         <v>159</v>
       </c>
       <c r="C159" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -5123,10 +5126,10 @@
         <v>160</v>
       </c>
       <c r="C160" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -5137,10 +5140,10 @@
         <v>161</v>
       </c>
       <c r="C161" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -5151,10 +5154,10 @@
         <v>162</v>
       </c>
       <c r="C162" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -5165,10 +5168,10 @@
         <v>163</v>
       </c>
       <c r="C163" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5179,10 +5182,10 @@
         <v>164</v>
       </c>
       <c r="C164" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -5193,10 +5196,10 @@
         <v>165</v>
       </c>
       <c r="C165" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -5207,10 +5210,10 @@
         <v>166</v>
       </c>
       <c r="C166" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -5221,10 +5224,10 @@
         <v>167</v>
       </c>
       <c r="C167" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5235,10 +5238,10 @@
         <v>168</v>
       </c>
       <c r="C168" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5249,10 +5252,10 @@
         <v>169</v>
       </c>
       <c r="C169" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -5263,10 +5266,10 @@
         <v>170</v>
       </c>
       <c r="C170" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -5277,10 +5280,10 @@
         <v>171</v>
       </c>
       <c r="C171" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -5291,10 +5294,10 @@
         <v>172</v>
       </c>
       <c r="C172" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5305,10 +5308,10 @@
         <v>173</v>
       </c>
       <c r="C173" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5319,10 +5322,10 @@
         <v>174</v>
       </c>
       <c r="C174" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5333,10 +5336,10 @@
         <v>175</v>
       </c>
       <c r="C175" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5347,10 +5350,10 @@
         <v>176</v>
       </c>
       <c r="C176" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5361,10 +5364,10 @@
         <v>177</v>
       </c>
       <c r="C177" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5375,10 +5378,10 @@
         <v>178</v>
       </c>
       <c r="C178" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -5389,10 +5392,10 @@
         <v>179</v>
       </c>
       <c r="C179" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -5403,10 +5406,10 @@
         <v>180</v>
       </c>
       <c r="C180" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5417,10 +5420,10 @@
         <v>181</v>
       </c>
       <c r="C181" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5431,10 +5434,10 @@
         <v>182</v>
       </c>
       <c r="C182" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5445,10 +5448,10 @@
         <v>183</v>
       </c>
       <c r="C183" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5459,10 +5462,10 @@
         <v>184</v>
       </c>
       <c r="C184" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -5473,10 +5476,10 @@
         <v>185</v>
       </c>
       <c r="C185" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5487,10 +5490,10 @@
         <v>186</v>
       </c>
       <c r="C186" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5501,10 +5504,10 @@
         <v>187</v>
       </c>
       <c r="C187" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5515,10 +5518,10 @@
         <v>188</v>
       </c>
       <c r="C188" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5529,10 +5532,10 @@
         <v>189</v>
       </c>
       <c r="C189" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -5543,10 +5546,10 @@
         <v>190</v>
       </c>
       <c r="C190" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5557,10 +5560,10 @@
         <v>191</v>
       </c>
       <c r="C191" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5571,10 +5574,10 @@
         <v>192</v>
       </c>
       <c r="C192" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -5585,10 +5588,10 @@
         <v>193</v>
       </c>
       <c r="C193" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -5599,10 +5602,10 @@
         <v>194</v>
       </c>
       <c r="C194" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -5613,10 +5616,10 @@
         <v>195</v>
       </c>
       <c r="C195" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -5627,10 +5630,10 @@
         <v>196</v>
       </c>
       <c r="C196" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -5641,10 +5644,10 @@
         <v>197</v>
       </c>
       <c r="C197" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -5655,10 +5658,10 @@
         <v>198</v>
       </c>
       <c r="C198" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -5669,10 +5672,10 @@
         <v>199</v>
       </c>
       <c r="C199" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -5683,10 +5686,10 @@
         <v>200</v>
       </c>
       <c r="C200" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -5697,10 +5700,10 @@
         <v>201</v>
       </c>
       <c r="C201" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -5711,10 +5714,10 @@
         <v>202</v>
       </c>
       <c r="C202" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -5725,10 +5728,10 @@
         <v>203</v>
       </c>
       <c r="C203" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5739,10 +5742,10 @@
         <v>204</v>
       </c>
       <c r="C204" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -5753,10 +5756,10 @@
         <v>205</v>
       </c>
       <c r="C205" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -5767,10 +5770,10 @@
         <v>206</v>
       </c>
       <c r="C206" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -5781,10 +5784,10 @@
         <v>207</v>
       </c>
       <c r="C207" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -5795,10 +5798,10 @@
         <v>208</v>
       </c>
       <c r="C208" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -5809,10 +5812,10 @@
         <v>209</v>
       </c>
       <c r="C209" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -5823,10 +5826,10 @@
         <v>210</v>
       </c>
       <c r="C210" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -5837,10 +5840,10 @@
         <v>211</v>
       </c>
       <c r="C211" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -5851,10 +5854,10 @@
         <v>212</v>
       </c>
       <c r="C212" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -5865,10 +5868,10 @@
         <v>213</v>
       </c>
       <c r="C213" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -5879,10 +5882,10 @@
         <v>214</v>
       </c>
       <c r="C214" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -5893,10 +5896,10 @@
         <v>215</v>
       </c>
       <c r="C215" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -5907,10 +5910,10 @@
         <v>216</v>
       </c>
       <c r="C216" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -5921,10 +5924,10 @@
         <v>217</v>
       </c>
       <c r="C217" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -5935,10 +5938,10 @@
         <v>218</v>
       </c>
       <c r="C218" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -5949,10 +5952,10 @@
         <v>219</v>
       </c>
       <c r="C219" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -5963,10 +5966,10 @@
         <v>220</v>
       </c>
       <c r="C220" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5977,10 +5980,10 @@
         <v>221</v>
       </c>
       <c r="C221" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5991,10 +5994,10 @@
         <v>222</v>
       </c>
       <c r="C222" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -6005,10 +6008,10 @@
         <v>223</v>
       </c>
       <c r="C223" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -6019,10 +6022,10 @@
         <v>224</v>
       </c>
       <c r="C224" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -6033,10 +6036,10 @@
         <v>225</v>
       </c>
       <c r="C225" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -6047,10 +6050,10 @@
         <v>226</v>
       </c>
       <c r="C226" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -6061,10 +6064,10 @@
         <v>227</v>
       </c>
       <c r="C227" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -6075,10 +6078,10 @@
         <v>228</v>
       </c>
       <c r="C228" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -6089,10 +6092,10 @@
         <v>229</v>
       </c>
       <c r="C229" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -6103,10 +6106,10 @@
         <v>230</v>
       </c>
       <c r="C230" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -6117,10 +6120,10 @@
         <v>231</v>
       </c>
       <c r="C231" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -6131,10 +6134,10 @@
         <v>232</v>
       </c>
       <c r="C232" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -6145,10 +6148,10 @@
         <v>233</v>
       </c>
       <c r="C233" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -6159,10 +6162,10 @@
         <v>234</v>
       </c>
       <c r="C234" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -6173,10 +6176,10 @@
         <v>235</v>
       </c>
       <c r="C235" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -6187,10 +6190,10 @@
         <v>236</v>
       </c>
       <c r="C236" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -6201,10 +6204,10 @@
         <v>237</v>
       </c>
       <c r="C237" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -6215,10 +6218,10 @@
         <v>238</v>
       </c>
       <c r="C238" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -6229,10 +6232,10 @@
         <v>239</v>
       </c>
       <c r="C239" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -6243,10 +6246,10 @@
         <v>240</v>
       </c>
       <c r="C240" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -6257,10 +6260,10 @@
         <v>241</v>
       </c>
       <c r="C241" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -6271,10 +6274,10 @@
         <v>242</v>
       </c>
       <c r="C242" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -6285,10 +6288,10 @@
         <v>243</v>
       </c>
       <c r="C243" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -6299,10 +6302,10 @@
         <v>244</v>
       </c>
       <c r="C244" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -6313,10 +6316,10 @@
         <v>245</v>
       </c>
       <c r="C245" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -6327,10 +6330,10 @@
         <v>246</v>
       </c>
       <c r="C246" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -6341,10 +6344,10 @@
         <v>247</v>
       </c>
       <c r="C247" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -6355,10 +6358,10 @@
         <v>248</v>
       </c>
       <c r="C248" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -6369,10 +6372,10 @@
         <v>249</v>
       </c>
       <c r="C249" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -6383,10 +6386,10 @@
         <v>250</v>
       </c>
       <c r="C250" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -6397,10 +6400,10 @@
         <v>251</v>
       </c>
       <c r="C251" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -6411,10 +6414,10 @@
         <v>252</v>
       </c>
       <c r="C252" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -6425,10 +6428,10 @@
         <v>253</v>
       </c>
       <c r="C253" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -6439,10 +6442,10 @@
         <v>254</v>
       </c>
       <c r="C254" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -6453,10 +6456,10 @@
         <v>255</v>
       </c>
       <c r="C255" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -6467,10 +6470,10 @@
         <v>256</v>
       </c>
       <c r="C256" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -6481,10 +6484,10 @@
         <v>257</v>
       </c>
       <c r="C257" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -6495,10 +6498,10 @@
         <v>258</v>
       </c>
       <c r="C258" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -6509,10 +6512,10 @@
         <v>259</v>
       </c>
       <c r="C259" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -6523,10 +6526,10 @@
         <v>260</v>
       </c>
       <c r="C260" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -6537,10 +6540,10 @@
         <v>261</v>
       </c>
       <c r="C261" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -6551,10 +6554,10 @@
         <v>262</v>
       </c>
       <c r="C262" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -6565,10 +6568,10 @@
         <v>263</v>
       </c>
       <c r="C263" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -6579,10 +6582,10 @@
         <v>264</v>
       </c>
       <c r="C264" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -6593,10 +6596,10 @@
         <v>265</v>
       </c>
       <c r="C265" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -6607,10 +6610,10 @@
         <v>266</v>
       </c>
       <c r="C266" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -6621,10 +6624,10 @@
         <v>267</v>
       </c>
       <c r="C267" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -6635,10 +6638,10 @@
         <v>268</v>
       </c>
       <c r="C268" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -6649,10 +6652,10 @@
         <v>269</v>
       </c>
       <c r="C269" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -6663,10 +6666,10 @@
         <v>270</v>
       </c>
       <c r="C270" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -6677,10 +6680,10 @@
         <v>271</v>
       </c>
       <c r="C271" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -6691,10 +6694,10 @@
         <v>272</v>
       </c>
       <c r="C272" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -6705,10 +6708,10 @@
         <v>273</v>
       </c>
       <c r="C273" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -6719,10 +6722,10 @@
         <v>274</v>
       </c>
       <c r="C274" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -6733,10 +6736,10 @@
         <v>275</v>
       </c>
       <c r="C275" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -6747,10 +6750,10 @@
         <v>276</v>
       </c>
       <c r="C276" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -6761,10 +6764,10 @@
         <v>277</v>
       </c>
       <c r="C277" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -6775,10 +6778,10 @@
         <v>278</v>
       </c>
       <c r="C278" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -6789,10 +6792,10 @@
         <v>279</v>
       </c>
       <c r="C279" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -6803,10 +6806,10 @@
         <v>280</v>
       </c>
       <c r="C280" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -6817,10 +6820,10 @@
         <v>281</v>
       </c>
       <c r="C281" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -6831,10 +6834,10 @@
         <v>282</v>
       </c>
       <c r="C282" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -6845,10 +6848,10 @@
         <v>283</v>
       </c>
       <c r="C283" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -6856,13 +6859,13 @@
         <v>293</v>
       </c>
       <c r="B284" t="s">
-        <v>225</v>
+        <v>284</v>
       </c>
       <c r="C284" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -6870,13 +6873,13 @@
         <v>294</v>
       </c>
       <c r="B285" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C285" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -6884,13 +6887,13 @@
         <v>295</v>
       </c>
       <c r="B286" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C286" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -6898,13 +6901,13 @@
         <v>296</v>
       </c>
       <c r="B287" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C287" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -6912,13 +6915,13 @@
         <v>297</v>
       </c>
       <c r="B288" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C288" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -6926,13 +6929,13 @@
         <v>298</v>
       </c>
       <c r="B289" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C289" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -6940,13 +6943,13 @@
         <v>299</v>
       </c>
       <c r="B290" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C290" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -6954,13 +6957,13 @@
         <v>300</v>
       </c>
       <c r="B291" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C291" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -6968,13 +6971,13 @@
         <v>301</v>
       </c>
       <c r="B292" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C292" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6982,13 +6985,13 @@
         <v>302</v>
       </c>
       <c r="B293" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C293" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6996,13 +6999,13 @@
         <v>303</v>
       </c>
       <c r="B294" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C294" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -7010,13 +7013,13 @@
         <v>304</v>
       </c>
       <c r="B295" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C295" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -7024,13 +7027,13 @@
         <v>305</v>
       </c>
       <c r="B296" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C296" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
   </sheetData>
